--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board Relay-Thermastat Cable (red and blue)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696E47C-73B0-8848-8AD2-E0F95A7FDC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F6F2C-FFB0-D04E-8145-1D4B1282EE96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="9440" yWindow="5260" windowWidth="25440" windowHeight="14520" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>Material</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Metal braid</t>
-  </si>
-  <si>
     <t>Plastic braid</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Expanding metal braid</t>
   </si>
   <si>
-    <t>1/8 adhesive shrink tube</t>
-  </si>
-  <si>
     <t>7.5 in</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>8 in</t>
   </si>
   <si>
-    <t>1.25 in</t>
-  </si>
-  <si>
     <t>PTN0.25BK</t>
   </si>
   <si>
@@ -282,12 +273,6 @@
     <t>4.8MM adhesive shrink tube</t>
   </si>
   <si>
-    <t>650-TAT125018</t>
-  </si>
-  <si>
-    <t>TAT-125-1/8-0-STK</t>
-  </si>
-  <si>
     <t>Imperial measuring tape</t>
   </si>
   <si>
@@ -313,6 +298,18 @@
   </si>
   <si>
     <t>Solder Iron</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>1.5in</t>
   </si>
 </sst>
 </file>
@@ -708,7 +705,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -754,58 +751,58 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -816,287 +813,287 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
       <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
+      <c r="A8" t="s">
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>80</v>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
       </c>
       <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
         <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
       <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
         <v>39</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
         <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
         <v>43</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
         <v>45</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
         <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board Relay-Thermastat Cable (red and blue)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F6F2C-FFB0-D04E-8145-1D4B1282EE96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DE0B9-6B0E-F546-8F0B-D7188C6D049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9440" yWindow="5260" windowWidth="25440" windowHeight="14520" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Material</t>
   </si>
@@ -114,9 +114,6 @@
     <t>517-1647</t>
   </si>
   <si>
-    <t>Fork 16-14 AWG</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
     <t>602-6714-100-06</t>
   </si>
   <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>Red 20 awg</t>
   </si>
   <si>
@@ -285,15 +276,6 @@
     <t>Tip soder joint covers</t>
   </si>
   <si>
-    <t>Newark</t>
-  </si>
-  <si>
-    <t>RNF-100-1/8-BK-STK</t>
-  </si>
-  <si>
-    <t>09J3954</t>
-  </si>
-  <si>
     <t>Solder</t>
   </si>
   <si>
@@ -310,13 +292,25 @@
   </si>
   <si>
     <t>1.5in</t>
+  </si>
+  <si>
+    <t>RNF-100-1/8-BK-SP</t>
+  </si>
+  <si>
+    <t>6 Fork</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,13 +339,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,14 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,7 +691,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -751,58 +737,58 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -813,141 +799,141 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
         <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -973,10 +959,10 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
         <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1002,15 +988,15 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1031,69 +1017,69 @@
         <v>25</v>
       </c>
       <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
       </c>
       <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
         <v>40</v>
-      </c>
-      <c r="M12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
         <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
         <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
         <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DE0B9-6B0E-F546-8F0B-D7188C6D049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D68B88-8553-8540-B6E8-D5A35F7E0130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9440" yWindow="5260" windowWidth="25440" windowHeight="14520" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>Solder Iron</t>
   </si>
   <si>
-    <t>6.4mm in adehsive shrink tube</t>
-  </si>
-  <si>
     <t>TAT-125-1/4-0-STK</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>602-6712-1000-02</t>
+  </si>
+  <si>
+    <t>6.4mm adehsive shrink tube</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,13 +805,13 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -909,25 +909,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1035,13 +1035,13 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
         <v>39</v>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/List of materials (red and blue).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board Relay-Thermastat Cable (red and blue)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D68B88-8553-8540-B6E8-D5A35F7E0130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3366A4C-B6B6-3A48-BCC8-DB878E5241EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9440" yWindow="5260" windowWidth="25440" windowHeight="14520" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -108,12 +108,6 @@
     <t>3M</t>
   </si>
   <si>
-    <t>BS-22-6</t>
-  </si>
-  <si>
-    <t>517-1647</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>RNF-100-1/8-BK-SP</t>
   </si>
   <si>
-    <t>6 Fork</t>
-  </si>
-  <si>
     <t>6712 BK001</t>
   </si>
   <si>
@@ -304,6 +295,15 @@
   </si>
   <si>
     <t>6.4mm adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>6 Fork connector</t>
+  </si>
+  <si>
+    <t>BS-32-6</t>
+  </si>
+  <si>
+    <t>517-1635</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -737,58 +737,58 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -799,141 +799,141 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -959,10 +959,10 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -988,15 +988,15 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>86</v>
+      <c r="A11" t="s">
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1008,78 +1008,78 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
